--- a/data/bundesliga_matches_2023_2025_final_fe_team_values_cleaned.xlsx
+++ b/data/bundesliga_matches_2023_2025_final_fe_team_values_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z696"/>
+  <dimension ref="A1:Z705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58419,646 +58419,646 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>540424</v>
+        <v>540425</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024-08-02T00:00:00Z</t>
+          <t>2025-09-12T18:30:00Z</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D631" t="n">
-        <v>722</v>
+        <v>3</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="F631" t="n">
-        <v>1722</v>
+        <v>19</v>
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K631" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L631" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M631" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>bayer 04 leverkusen</t>
         </is>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>eintracht frankfurt</t>
         </is>
       </c>
       <c r="O631" t="n">
-        <v>100000000</v>
+        <v>620000000</v>
       </c>
       <c r="P631" t="n">
-        <v>95000000</v>
+        <v>580000000</v>
       </c>
       <c r="Q631" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="R631" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="S631" t="n">
-        <v>5000000</v>
+        <v>40000000</v>
       </c>
       <c r="T631" t="n">
-        <v>18.42</v>
+        <v>20.25</v>
       </c>
       <c r="U631" t="n">
-        <v>70000000</v>
+        <v>280000000</v>
       </c>
       <c r="V631" t="n">
-        <v>65000000</v>
+        <v>260000000</v>
       </c>
       <c r="W631" t="n">
         <v>7.7</v>
       </c>
       <c r="X631" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="Y631" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="Z631" t="n">
-        <v>18.06</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>540425</v>
+        <v>540426</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D632" t="n">
-        <v>723</v>
+        <v>17</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="F632" t="n">
-        <v>1723</v>
+        <v>10</v>
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K632" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M632" t="inlineStr">
         <is>
-          <t>elversberg</t>
+          <t>sc freiburg</t>
         </is>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>vfb stuttgart</t>
         </is>
       </c>
       <c r="O632" t="n">
-        <v>261388888.8888889</v>
+        <v>180000000</v>
       </c>
       <c r="P632" t="n">
-        <v>248611111.1111111</v>
+        <v>170000000</v>
       </c>
       <c r="Q632" t="n">
-        <v>6.305555555555555</v>
+        <v>5.9</v>
       </c>
       <c r="R632" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="S632" t="n">
-        <v>12777777.77777778</v>
+        <v>10000000</v>
       </c>
       <c r="T632" t="n">
-        <v>19.03</v>
+        <v>19.01</v>
       </c>
       <c r="U632" t="n">
-        <v>100000000</v>
+        <v>220000000</v>
       </c>
       <c r="V632" t="n">
-        <v>95000000</v>
+        <v>200000000</v>
       </c>
       <c r="W632" t="n">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="X632" t="n">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
       <c r="Y632" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="Z632" t="n">
-        <v>18.42</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>540426</v>
+        <v>540427</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024-08-10T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D633" t="n">
-        <v>724</v>
+        <v>15</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FSV Mainz 05</t>
         </is>
       </c>
       <c r="F633" t="n">
-        <v>1724</v>
+        <v>721</v>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K633" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L633" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M633" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>fmainz 05</t>
         </is>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>hertha</t>
+          <t>rb leipzig</t>
         </is>
       </c>
       <c r="O633" t="n">
-        <v>70000000</v>
+        <v>120000000</v>
       </c>
       <c r="P633" t="n">
-        <v>65000000</v>
+        <v>115000000</v>
       </c>
       <c r="Q633" t="n">
-        <v>7.7</v>
+        <v>4.3</v>
       </c>
       <c r="R633" t="n">
-        <v>26.8</v>
+        <v>25.9</v>
       </c>
       <c r="S633" t="n">
         <v>5000000</v>
       </c>
       <c r="T633" t="n">
-        <v>18.06</v>
+        <v>18.6</v>
       </c>
       <c r="U633" t="n">
-        <v>261388888.8888889</v>
+        <v>520000000</v>
       </c>
       <c r="V633" t="n">
-        <v>248611111.1111111</v>
+        <v>500000000</v>
       </c>
       <c r="W633" t="n">
-        <v>6.305555555555555</v>
+        <v>4</v>
       </c>
       <c r="X633" t="n">
-        <v>26.1</v>
+        <v>24.1</v>
       </c>
       <c r="Y633" t="n">
-        <v>12777777.77777778</v>
+        <v>20000000</v>
       </c>
       <c r="Z633" t="n">
-        <v>19.03</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>540427</v>
+        <v>540429</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024-08-23T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D634" t="n">
-        <v>725</v>
+        <v>11</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="F634" t="n">
-        <v>1725</v>
+        <v>1</v>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L634" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M634" t="inlineStr">
         <is>
-          <t>hannover</t>
+          <t>vfl wolfsburg</t>
         </is>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O634" t="n">
-        <v>261388888.8888889</v>
+        <v>230000000</v>
       </c>
       <c r="P634" t="n">
-        <v>248611111.1111111</v>
+        <v>220000000</v>
       </c>
       <c r="Q634" t="n">
-        <v>6.305555555555555</v>
+        <v>4.5</v>
       </c>
       <c r="R634" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="S634" t="n">
-        <v>12777777.77777778</v>
+        <v>10000000</v>
       </c>
       <c r="T634" t="n">
-        <v>19.03</v>
+        <v>19.25</v>
       </c>
       <c r="U634" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V634" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W634" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X634" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y634" t="n">
         <v>5000000</v>
       </c>
       <c r="Z634" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>540428</v>
+        <v>540430</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024-08-24T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D635" t="n">
-        <v>726</v>
+        <v>28</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="F635" t="n">
-        <v>1726</v>
+        <v>2</v>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>TSG 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="H635" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I635" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M635" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>1. fc union berlin</t>
         </is>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>braunschweig</t>
+          <t>1899 hoffenheim</t>
         </is>
       </c>
       <c r="O635" t="n">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="P635" t="n">
-        <v>95000000</v>
+        <v>140000000</v>
       </c>
       <c r="Q635" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="R635" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="S635" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="T635" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="U635" t="n">
+        <v>190000000</v>
+      </c>
+      <c r="V635" t="n">
+        <v>185000000</v>
+      </c>
+      <c r="W635" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X635" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Y635" t="n">
         <v>5000000</v>
       </c>
-      <c r="T635" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="U635" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V635" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W635" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X635" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y635" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z635" t="n">
-        <v>19.03</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>540429</v>
+        <v>540432</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024-08-31T00:00:00Z</t>
+          <t>2025-09-13T13:30:00Z</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D636" t="n">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="F636" t="n">
-        <v>1727</v>
+        <v>4</v>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="H636" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K636" t="n">
         <v>0</v>
       </c>
       <c r="L636" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M636" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc heidenheim 1846</t>
         </is>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>preuen munster</t>
+          <t>borussia dortmund</t>
         </is>
       </c>
       <c r="O636" t="n">
-        <v>70000000</v>
+        <v>40000000</v>
       </c>
       <c r="P636" t="n">
-        <v>65000000</v>
+        <v>35000000</v>
       </c>
       <c r="Q636" t="n">
-        <v>7.7</v>
+        <v>14.3</v>
       </c>
       <c r="R636" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="S636" t="n">
         <v>5000000</v>
       </c>
       <c r="T636" t="n">
-        <v>18.06</v>
+        <v>17.5</v>
       </c>
       <c r="U636" t="n">
-        <v>261388888.8888889</v>
+        <v>470000000</v>
       </c>
       <c r="V636" t="n">
-        <v>248611111.1111111</v>
+        <v>450000000</v>
       </c>
       <c r="W636" t="n">
-        <v>6.305555555555555</v>
+        <v>4.4</v>
       </c>
       <c r="X636" t="n">
-        <v>26.1</v>
+        <v>24.9</v>
       </c>
       <c r="Y636" t="n">
-        <v>12777777.77777778</v>
+        <v>20000000</v>
       </c>
       <c r="Z636" t="n">
-        <v>19.03</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>540430</v>
+        <v>540424</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024-09-01T00:00:00Z</t>
+          <t>2025-09-13T16:30:00Z</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D637" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="F637" t="n">
-        <v>1728</v>
+        <v>7</v>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K637" t="n">
         <v>0</v>
       </c>
       <c r="L637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M637" t="inlineStr">
         <is>
-          <t>schalke 04</t>
+          <t>fc bayern munchen</t>
         </is>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O637" t="n">
-        <v>261388888.8888889</v>
+        <v>980000000</v>
       </c>
       <c r="P637" t="n">
-        <v>248611111.1111111</v>
+        <v>950000000</v>
       </c>
       <c r="Q637" t="n">
-        <v>6.305555555555555</v>
+        <v>3.2</v>
       </c>
       <c r="R637" t="n">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
       <c r="S637" t="n">
-        <v>12777777.77777778</v>
+        <v>30000000</v>
       </c>
       <c r="T637" t="n">
-        <v>19.03</v>
+        <v>20.7</v>
       </c>
       <c r="U637" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V637" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W637" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X637" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y637" t="n">
         <v>5000000</v>
       </c>
       <c r="Z637" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="638">
@@ -59067,182 +59067,182 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024-09-14T00:00:00Z</t>
+          <t>2025-09-14T13:30:00Z</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D638" t="n">
-        <v>729</v>
+        <v>20</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="F638" t="n">
-        <v>1729</v>
+        <v>16</v>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HomeWin</t>
         </is>
       </c>
       <c r="K638" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L638" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M638" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>st. pauli</t>
         </is>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>magdeburg</t>
+          <t>fc augsburg</t>
         </is>
       </c>
       <c r="O638" t="n">
-        <v>100000000</v>
+        <v>45000000</v>
       </c>
       <c r="P638" t="n">
-        <v>95000000</v>
+        <v>40000000</v>
       </c>
       <c r="Q638" t="n">
-        <v>5.3</v>
+        <v>12.5</v>
       </c>
       <c r="R638" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="S638" t="n">
         <v>5000000</v>
       </c>
       <c r="T638" t="n">
-        <v>18.42</v>
+        <v>17.62</v>
       </c>
       <c r="U638" t="n">
-        <v>261388888.8888889</v>
+        <v>130000000</v>
       </c>
       <c r="V638" t="n">
-        <v>248611111.1111111</v>
+        <v>125000000</v>
       </c>
       <c r="W638" t="n">
-        <v>6.305555555555555</v>
+        <v>4</v>
       </c>
       <c r="X638" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Y638" t="n">
-        <v>12777777.77777778</v>
+        <v>5000000</v>
       </c>
       <c r="Z638" t="n">
-        <v>19.03</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>540432</v>
+        <v>540428</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024-09-15T00:00:00Z</t>
+          <t>2025-09-14T15:30:00Z</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D639" t="n">
-        <v>730</v>
+        <v>18</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Borussia Mönchengladbach</t>
         </is>
       </c>
       <c r="F639" t="n">
-        <v>1730</v>
+        <v>12</v>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="H639" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>AwayWin</t>
         </is>
       </c>
       <c r="K639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L639" t="n">
         <v>0</v>
       </c>
       <c r="M639" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>borussia monchengladbach</t>
         </is>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>regensburg</t>
+          <t>sv werder bremen</t>
         </is>
       </c>
       <c r="O639" t="n">
-        <v>70000000</v>
+        <v>250000000</v>
       </c>
       <c r="P639" t="n">
-        <v>65000000</v>
+        <v>240000000</v>
       </c>
       <c r="Q639" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="R639" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="S639" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="T639" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="U639" t="n">
+        <v>110000000</v>
+      </c>
+      <c r="V639" t="n">
+        <v>105000000</v>
+      </c>
+      <c r="W639" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X639" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Y639" t="n">
         <v>5000000</v>
       </c>
-      <c r="T639" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U639" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V639" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W639" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X639" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y639" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z639" t="n">
-        <v>19.03</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="640">
@@ -59251,37 +59251,37 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C640" t="n">
         <v>0</v>
       </c>
       <c r="D640" t="n">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F640" t="n">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>2</v>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K640" t="n">
@@ -59292,49 +59292,49 @@
       </c>
       <c r="M640" t="inlineStr">
         <is>
-          <t>fortuna dusseldorf</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O640" t="n">
-        <v>261388888.8888889</v>
+        <v>100000000</v>
       </c>
       <c r="P640" t="n">
-        <v>248611111.1111111</v>
+        <v>95000000</v>
       </c>
       <c r="Q640" t="n">
-        <v>6.305555555555555</v>
+        <v>5.3</v>
       </c>
       <c r="R640" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="S640" t="n">
-        <v>12777777.77777778</v>
+        <v>5000000</v>
       </c>
       <c r="T640" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
       <c r="U640" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V640" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W640" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X640" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y640" t="n">
         <v>5000000</v>
       </c>
       <c r="Z640" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="641">
@@ -59343,26 +59343,26 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024-09-21T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C641" t="n">
         <v>0</v>
       </c>
       <c r="D641" t="n">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F641" t="n">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H641" t="n">
@@ -59377,19 +59377,19 @@
         </is>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L641" t="n">
         <v>0</v>
       </c>
       <c r="M641" t="inlineStr">
         <is>
-          <t>kaiserslautern</t>
+          <t>elversberg</t>
         </is>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O641" t="n">
@@ -59411,22 +59411,22 @@
         <v>19.03</v>
       </c>
       <c r="U641" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V641" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W641" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X641" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y641" t="n">
         <v>5000000</v>
       </c>
       <c r="Z641" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="642">
@@ -59435,14 +59435,14 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024-09-28T00:00:00Z</t>
+          <t>2024-08-10T00:00:00Z</t>
         </is>
       </c>
       <c r="C642" t="n">
         <v>0</v>
       </c>
       <c r="D642" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -59450,18 +59450,18 @@
         </is>
       </c>
       <c r="F642" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J642" t="inlineStr">
         <is>
@@ -59481,7 +59481,7 @@
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>paderborn</t>
+          <t>hertha</t>
         </is>
       </c>
       <c r="O642" t="n">
@@ -59527,37 +59527,37 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024-09-29T00:00:00Z</t>
+          <t>2024-08-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C643" t="n">
         <v>0</v>
       </c>
       <c r="D643" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F643" t="n">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H643" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K643" t="n">
@@ -59568,49 +59568,49 @@
       </c>
       <c r="M643" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hannover</t>
         </is>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>karlsruhe</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O643" t="n">
-        <v>100000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P643" t="n">
-        <v>95000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q643" t="n">
-        <v>5.3</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R643" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="S643" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T643" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U643" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V643" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W643" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X643" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y643" t="n">
         <v>5000000</v>
       </c>
-      <c r="T643" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="U643" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V643" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W643" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X643" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y643" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z643" t="n">
-        <v>19.03</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="644">
@@ -59619,14 +59619,14 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024-10-05T00:00:00Z</t>
+          <t>2024-08-24T00:00:00Z</t>
         </is>
       </c>
       <c r="C644" t="n">
         <v>0</v>
       </c>
       <c r="D644" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -59634,15 +59634,15 @@
         </is>
       </c>
       <c r="F644" t="n">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -59653,7 +59653,7 @@
         </is>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L644" t="n">
         <v>0</v>
@@ -59665,7 +59665,7 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>ulm</t>
+          <t>braunschweig</t>
         </is>
       </c>
       <c r="O644" t="n">
@@ -59711,37 +59711,37 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024-10-06T00:00:00Z</t>
+          <t>2024-08-31T00:00:00Z</t>
         </is>
       </c>
       <c r="C645" t="n">
         <v>0</v>
       </c>
       <c r="D645" t="n">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F645" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I645" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K645" t="n">
@@ -59752,49 +59752,49 @@
       </c>
       <c r="M645" t="inlineStr">
         <is>
-          <t>fortuna dusseldorf</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>preuen munster</t>
         </is>
       </c>
       <c r="O645" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P645" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R645" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S645" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T645" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U645" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P645" t="n">
+      <c r="V645" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q645" t="n">
+      <c r="W645" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R645" t="n">
+      <c r="X645" t="n">
         <v>26.1</v>
       </c>
-      <c r="S645" t="n">
+      <c r="Y645" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T645" t="n">
+      <c r="Z645" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U645" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V645" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W645" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X645" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y645" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z645" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="646">
@@ -59803,22 +59803,22 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024-10-18T00:00:00Z</t>
+          <t>2024-09-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C646" t="n">
         <v>0</v>
       </c>
       <c r="D646" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F646" t="n">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="G646" t="inlineStr">
         <is>
@@ -59826,14 +59826,14 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K646" t="n">
@@ -59844,7 +59844,7 @@
       </c>
       <c r="M646" t="inlineStr">
         <is>
-          <t>darmstadt</t>
+          <t>schalke 04</t>
         </is>
       </c>
       <c r="N646" t="inlineStr">
@@ -59895,22 +59895,22 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024-10-20T00:00:00Z</t>
+          <t>2024-09-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C647" t="n">
         <v>0</v>
       </c>
       <c r="D647" t="n">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F647" t="n">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="G647" t="inlineStr">
         <is>
@@ -59918,14 +59918,14 @@
         </is>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K647" t="n">
@@ -59936,7 +59936,7 @@
       </c>
       <c r="M647" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N647" t="inlineStr">
@@ -59945,22 +59945,22 @@
         </is>
       </c>
       <c r="O647" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="P647" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="Q647" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="R647" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="S647" t="n">
         <v>5000000</v>
       </c>
       <c r="T647" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
       <c r="U647" t="n">
         <v>261388888.8888889</v>
@@ -59987,37 +59987,37 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024-10-25T00:00:00Z</t>
+          <t>2024-09-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C648" t="n">
         <v>0</v>
       </c>
       <c r="D648" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F648" t="n">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K648" t="n">
@@ -60028,31 +60028,31 @@
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>paderborn</t>
+          <t>regensburg</t>
         </is>
       </c>
       <c r="O648" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="P648" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="Q648" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="R648" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="S648" t="n">
         <v>5000000</v>
       </c>
       <c r="T648" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
       <c r="U648" t="n">
         <v>261388888.8888889</v>
@@ -60079,37 +60079,37 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024-10-26T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C649" t="n">
         <v>0</v>
       </c>
       <c r="D649" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F649" t="n">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H649" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K649" t="n">
@@ -60120,12 +60120,12 @@
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>elversberg</t>
+          <t>fortuna dusseldorf</t>
         </is>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O649" t="n">
@@ -60147,22 +60147,22 @@
         <v>19.03</v>
       </c>
       <c r="U649" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V649" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W649" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X649" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y649" t="n">
         <v>5000000</v>
       </c>
       <c r="Z649" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="650">
@@ -60171,37 +60171,37 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024-11-02T00:00:00Z</t>
+          <t>2024-09-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C650" t="n">
         <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F650" t="n">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K650" t="n">
@@ -60212,12 +60212,12 @@
       </c>
       <c r="M650" t="inlineStr">
         <is>
-          <t>hertha</t>
+          <t>kaiserslautern</t>
         </is>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O650" t="n">
@@ -60239,22 +60239,22 @@
         <v>19.03</v>
       </c>
       <c r="U650" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V650" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W650" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X650" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y650" t="n">
         <v>5000000</v>
       </c>
       <c r="Z650" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="651">
@@ -60263,14 +60263,14 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024-11-03T00:00:00Z</t>
+          <t>2024-09-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C651" t="n">
         <v>0</v>
       </c>
       <c r="D651" t="n">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -60278,18 +60278,18 @@
         </is>
       </c>
       <c r="F651" t="n">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J651" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>nurnberg</t>
+          <t>paderborn</t>
         </is>
       </c>
       <c r="O651" t="n">
@@ -60355,37 +60355,37 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024-11-08T00:00:00Z</t>
+          <t>2024-09-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C652" t="n">
         <v>0</v>
       </c>
       <c r="D652" t="n">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F652" t="n">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I652" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K652" t="n">
@@ -60396,49 +60396,49 @@
       </c>
       <c r="M652" t="inlineStr">
         <is>
-          <t>braunschweig</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>karlsruhe</t>
         </is>
       </c>
       <c r="O652" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P652" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R652" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S652" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T652" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U652" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P652" t="n">
+      <c r="V652" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q652" t="n">
+      <c r="W652" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R652" t="n">
+      <c r="X652" t="n">
         <v>26.1</v>
       </c>
-      <c r="S652" t="n">
+      <c r="Y652" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T652" t="n">
+      <c r="Z652" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U652" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V652" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W652" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X652" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y652" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z652" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="653">
@@ -60447,14 +60447,14 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024-11-09T00:00:00Z</t>
+          <t>2024-10-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C653" t="n">
         <v>0</v>
       </c>
       <c r="D653" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -60462,15 +60462,15 @@
         </is>
       </c>
       <c r="F653" t="n">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -60493,7 +60493,7 @@
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>greuther furth</t>
+          <t>ulm</t>
         </is>
       </c>
       <c r="O653" t="n">
@@ -60539,33 +60539,33 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024-11-22T00:00:00Z</t>
+          <t>2024-10-06T00:00:00Z</t>
         </is>
       </c>
       <c r="C654" t="n">
         <v>0</v>
       </c>
       <c r="D654" t="n">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="F654" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H654" t="n">
         <v>0</v>
       </c>
       <c r="I654" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
@@ -60580,12 +60580,12 @@
       </c>
       <c r="M654" t="inlineStr">
         <is>
-          <t>preuen munster</t>
+          <t>fortuna dusseldorf</t>
         </is>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O654" t="n">
@@ -60607,22 +60607,22 @@
         <v>19.03</v>
       </c>
       <c r="U654" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V654" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W654" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X654" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y654" t="n">
         <v>5000000</v>
       </c>
       <c r="Z654" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="655">
@@ -60631,37 +60631,37 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024-11-23T00:00:00Z</t>
+          <t>2024-10-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C655" t="n">
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F655" t="n">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K655" t="n">
@@ -60672,49 +60672,49 @@
       </c>
       <c r="M655" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>darmstadt</t>
         </is>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>schalke 04</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O655" t="n">
-        <v>70000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P655" t="n">
-        <v>65000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q655" t="n">
-        <v>7.7</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R655" t="n">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
       <c r="S655" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T655" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U655" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V655" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W655" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X655" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y655" t="n">
         <v>5000000</v>
       </c>
-      <c r="T655" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U655" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V655" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W655" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X655" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y655" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z655" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="656">
@@ -60723,37 +60723,37 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024-11-30T00:00:00Z</t>
+          <t>2024-10-20T00:00:00Z</t>
         </is>
       </c>
       <c r="C656" t="n">
         <v>0</v>
       </c>
       <c r="D656" t="n">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F656" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K656" t="n">
@@ -60764,31 +60764,31 @@
       </c>
       <c r="M656" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>hannover</t>
+          <t>magdeburg</t>
         </is>
       </c>
       <c r="O656" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="P656" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="Q656" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="R656" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="S656" t="n">
         <v>5000000</v>
       </c>
       <c r="T656" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
       <c r="U656" t="n">
         <v>261388888.8888889</v>
@@ -60815,33 +60815,33 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024-12-01T00:00:00Z</t>
+          <t>2024-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C657" t="n">
         <v>0</v>
       </c>
       <c r="D657" t="n">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F657" t="n">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H657" t="n">
         <v>1</v>
       </c>
       <c r="I657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J657" t="inlineStr">
         <is>
@@ -60856,49 +60856,49 @@
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>karlsruhe</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>paderborn</t>
         </is>
       </c>
       <c r="O657" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P657" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R657" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S657" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T657" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U657" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P657" t="n">
+      <c r="V657" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q657" t="n">
+      <c r="W657" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R657" t="n">
+      <c r="X657" t="n">
         <v>26.1</v>
       </c>
-      <c r="S657" t="n">
+      <c r="Y657" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T657" t="n">
+      <c r="Z657" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U657" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V657" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W657" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X657" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y657" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z657" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="658">
@@ -60907,37 +60907,37 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-10-26T00:00:00Z</t>
         </is>
       </c>
       <c r="C658" t="n">
         <v>0</v>
       </c>
       <c r="D658" t="n">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>1740</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F658" t="n">
-        <v>1749</v>
-      </c>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I658" t="n">
         <v>2</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K658" t="n">
@@ -60948,49 +60948,49 @@
       </c>
       <c r="M658" t="inlineStr">
         <is>
+          <t>elversberg</t>
+        </is>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
           <t>hamburger sv</t>
         </is>
       </c>
-      <c r="N658" t="inlineStr">
-        <is>
-          <t>darmstadt</t>
-        </is>
-      </c>
       <c r="O658" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P658" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R658" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S658" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T658" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U658" t="n">
         <v>70000000</v>
       </c>
-      <c r="P658" t="n">
+      <c r="V658" t="n">
         <v>65000000</v>
       </c>
-      <c r="Q658" t="n">
+      <c r="W658" t="n">
         <v>7.7</v>
       </c>
-      <c r="R658" t="n">
+      <c r="X658" t="n">
         <v>26.8</v>
       </c>
-      <c r="S658" t="n">
+      <c r="Y658" t="n">
         <v>5000000</v>
       </c>
-      <c r="T658" t="n">
+      <c r="Z658" t="n">
         <v>18.06</v>
-      </c>
-      <c r="U658" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V658" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W658" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X658" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y658" t="n">
-        <v>12777777.77777778</v>
-      </c>
-      <c r="Z658" t="n">
-        <v>19.03</v>
       </c>
     </row>
     <row r="659">
@@ -60999,22 +60999,22 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024-12-08T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C659" t="n">
         <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F659" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="G659" t="inlineStr">
         <is>
@@ -61040,7 +61040,7 @@
       </c>
       <c r="M659" t="inlineStr">
         <is>
-          <t>regensburg</t>
+          <t>hertha</t>
         </is>
       </c>
       <c r="N659" t="inlineStr">
@@ -61091,26 +61091,26 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024-12-14T00:00:00Z</t>
+          <t>2024-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="C660" t="n">
         <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F660" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H660" t="n">
@@ -61132,49 +61132,49 @@
       </c>
       <c r="M660" t="inlineStr">
         <is>
-          <t>ulm</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>nurnberg</t>
         </is>
       </c>
       <c r="O660" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P660" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R660" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S660" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T660" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U660" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P660" t="n">
+      <c r="V660" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q660" t="n">
+      <c r="W660" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R660" t="n">
+      <c r="X660" t="n">
         <v>26.1</v>
       </c>
-      <c r="S660" t="n">
+      <c r="Y660" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T660" t="n">
+      <c r="Z660" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U660" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V660" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W660" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X660" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y660" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z660" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="661">
@@ -61183,26 +61183,26 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024-12-15T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C661" t="n">
         <v>0</v>
       </c>
       <c r="D661" t="n">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F661" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H661" t="n">
@@ -61224,49 +61224,49 @@
       </c>
       <c r="M661" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>braunschweig</t>
         </is>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>nurnberg</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O661" t="n">
-        <v>100000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P661" t="n">
-        <v>95000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q661" t="n">
-        <v>5.3</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R661" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="S661" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T661" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U661" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V661" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W661" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X661" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y661" t="n">
         <v>5000000</v>
       </c>
-      <c r="T661" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="U661" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V661" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W661" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X661" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y661" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z661" t="n">
-        <v>19.03</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="662">
@@ -61275,22 +61275,22 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024-12-21T00:00:00Z</t>
+          <t>2024-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C662" t="n">
         <v>0</v>
       </c>
       <c r="D662" t="n">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F662" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G662" t="inlineStr">
         <is>
@@ -61298,7 +61298,7 @@
         </is>
       </c>
       <c r="H662" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -61316,7 +61316,7 @@
       </c>
       <c r="M662" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N662" t="inlineStr">
@@ -61325,22 +61325,22 @@
         </is>
       </c>
       <c r="O662" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="P662" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="Q662" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="R662" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="S662" t="n">
         <v>5000000</v>
       </c>
       <c r="T662" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
       <c r="U662" t="n">
         <v>261388888.8888889</v>
@@ -61367,22 +61367,22 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024-12-22T00:00:00Z</t>
+          <t>2024-11-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C663" t="n">
         <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="F663" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="G663" t="inlineStr">
         <is>
@@ -61408,7 +61408,7 @@
       </c>
       <c r="M663" t="inlineStr">
         <is>
-          <t>kaiserslautern</t>
+          <t>preuen munster</t>
         </is>
       </c>
       <c r="N663" t="inlineStr">
@@ -61459,14 +61459,14 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2025-01-18T00:00:00Z</t>
+          <t>2024-11-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C664" t="n">
         <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -61474,22 +61474,22 @@
         </is>
       </c>
       <c r="F664" t="n">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K664" t="n">
@@ -61505,7 +61505,7 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>schalke 04</t>
         </is>
       </c>
       <c r="O664" t="n">
@@ -61527,22 +61527,22 @@
         <v>18.06</v>
       </c>
       <c r="U664" t="n">
-        <v>100000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="V664" t="n">
-        <v>95000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="W664" t="n">
-        <v>5.3</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="X664" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="Y664" t="n">
-        <v>5000000</v>
+        <v>12777777.77777778</v>
       </c>
       <c r="Z664" t="n">
-        <v>18.42</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="665">
@@ -61551,14 +61551,14 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-11-30T00:00:00Z</t>
         </is>
       </c>
       <c r="C665" t="n">
         <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -61566,22 +61566,22 @@
         </is>
       </c>
       <c r="F665" t="n">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K665" t="n">
@@ -61597,7 +61597,7 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>elversberg</t>
+          <t>hannover</t>
         </is>
       </c>
       <c r="O665" t="n">
@@ -61643,22 +61643,22 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2025-01-25T00:00:00Z</t>
+          <t>2024-12-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C666" t="n">
         <v>0</v>
       </c>
       <c r="D666" t="n">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F666" t="n">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="G666" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>3</v>
@@ -61684,7 +61684,7 @@
       </c>
       <c r="M666" t="inlineStr">
         <is>
-          <t>hertha</t>
+          <t>karlsruhe</t>
         </is>
       </c>
       <c r="N666" t="inlineStr">
@@ -61735,37 +61735,37 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2025-02-01T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C667" t="n">
         <v>0</v>
       </c>
       <c r="D667" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F667" t="n">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="n">
         <v>2</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K667" t="n">
@@ -61776,49 +61776,49 @@
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>braunschweig</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>darmstadt</t>
         </is>
       </c>
       <c r="O667" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P667" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R667" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S667" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T667" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U667" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P667" t="n">
+      <c r="V667" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q667" t="n">
+      <c r="W667" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R667" t="n">
+      <c r="X667" t="n">
         <v>26.1</v>
       </c>
-      <c r="S667" t="n">
+      <c r="Y667" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T667" t="n">
+      <c r="Z667" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U667" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V667" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W667" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X667" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y667" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z667" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="668">
@@ -61827,37 +61827,37 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2025-02-02T00:00:00Z</t>
+          <t>2024-12-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C668" t="n">
         <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F668" t="n">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K668" t="n">
@@ -61868,49 +61868,49 @@
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>regensburg</t>
         </is>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>hannover</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O668" t="n">
-        <v>70000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P668" t="n">
-        <v>65000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q668" t="n">
-        <v>7.7</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R668" t="n">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
       <c r="S668" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T668" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U668" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V668" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W668" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X668" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y668" t="n">
         <v>5000000</v>
       </c>
-      <c r="T668" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U668" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V668" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W668" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X668" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y668" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z668" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="669">
@@ -61919,22 +61919,22 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2025-02-07T00:00:00Z</t>
+          <t>2024-12-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C669" t="n">
         <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F669" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="G669" t="inlineStr">
         <is>
@@ -61945,11 +61945,11 @@
         <v>1</v>
       </c>
       <c r="I669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K669" t="n">
@@ -61960,7 +61960,7 @@
       </c>
       <c r="M669" t="inlineStr">
         <is>
-          <t>preuen munster</t>
+          <t>ulm</t>
         </is>
       </c>
       <c r="N669" t="inlineStr">
@@ -62011,14 +62011,14 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2025-02-09T00:00:00Z</t>
+          <t>2024-12-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C670" t="n">
         <v>0</v>
       </c>
       <c r="D670" t="n">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -62026,18 +62026,18 @@
         </is>
       </c>
       <c r="F670" t="n">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J670" t="inlineStr">
         <is>
@@ -62057,7 +62057,7 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>schalke 04</t>
+          <t>nurnberg</t>
         </is>
       </c>
       <c r="O670" t="n">
@@ -62103,30 +62103,30 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2025-02-14T00:00:00Z</t>
+          <t>2024-12-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C671" t="n">
         <v>0</v>
       </c>
       <c r="D671" t="n">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F671" t="n">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -62144,49 +62144,49 @@
       </c>
       <c r="M671" t="inlineStr">
         <is>
-          <t>magdeburg</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>greuther furth</t>
         </is>
       </c>
       <c r="O671" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P671" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q671" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R671" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S671" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T671" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U671" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P671" t="n">
+      <c r="V671" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q671" t="n">
+      <c r="W671" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R671" t="n">
+      <c r="X671" t="n">
         <v>26.1</v>
       </c>
-      <c r="S671" t="n">
+      <c r="Y671" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T671" t="n">
+      <c r="Z671" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U671" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V671" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W671" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X671" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y671" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z671" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="672">
@@ -62195,37 +62195,37 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2025-02-16T00:00:00Z</t>
+          <t>2024-12-22T00:00:00Z</t>
         </is>
       </c>
       <c r="C672" t="n">
         <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F672" t="n">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K672" t="n">
@@ -62236,12 +62236,12 @@
       </c>
       <c r="M672" t="inlineStr">
         <is>
-          <t>regensburg</t>
+          <t>kaiserslautern</t>
         </is>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O672" t="n">
@@ -62263,22 +62263,22 @@
         <v>19.03</v>
       </c>
       <c r="U672" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V672" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W672" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X672" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y672" t="n">
         <v>5000000</v>
       </c>
       <c r="Z672" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="673">
@@ -62287,14 +62287,14 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2025-02-21T00:00:00Z</t>
+          <t>2025-01-18T00:00:00Z</t>
         </is>
       </c>
       <c r="C673" t="n">
         <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -62302,15 +62302,15 @@
         </is>
       </c>
       <c r="F673" t="n">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -62333,7 +62333,7 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>kaiserslautern</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O673" t="n">
@@ -62355,22 +62355,22 @@
         <v>18.06</v>
       </c>
       <c r="U673" t="n">
-        <v>261388888.8888889</v>
+        <v>100000000</v>
       </c>
       <c r="V673" t="n">
-        <v>248611111.1111111</v>
+        <v>95000000</v>
       </c>
       <c r="W673" t="n">
-        <v>6.305555555555555</v>
+        <v>5.3</v>
       </c>
       <c r="X673" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="Y673" t="n">
-        <v>12777777.77777778</v>
+        <v>5000000</v>
       </c>
       <c r="Z673" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="674">
@@ -62379,14 +62379,14 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2025-02-23T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C674" t="n">
         <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -62394,22 +62394,22 @@
         </is>
       </c>
       <c r="F674" t="n">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H674" t="n">
         <v>1</v>
       </c>
       <c r="I674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K674" t="n">
@@ -62425,7 +62425,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>fortuna dusseldorf</t>
+          <t>elversberg</t>
         </is>
       </c>
       <c r="O674" t="n">
@@ -62471,37 +62471,37 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2025-03-01T00:00:00Z</t>
+          <t>2025-01-25T00:00:00Z</t>
         </is>
       </c>
       <c r="C675" t="n">
         <v>0</v>
       </c>
       <c r="D675" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="F675" t="n">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I675" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K675" t="n">
@@ -62512,12 +62512,12 @@
       </c>
       <c r="M675" t="inlineStr">
         <is>
-          <t>karlsruhe</t>
+          <t>hertha</t>
         </is>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O675" t="n">
@@ -62539,22 +62539,22 @@
         <v>19.03</v>
       </c>
       <c r="U675" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V675" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W675" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X675" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y675" t="n">
         <v>5000000</v>
       </c>
       <c r="Z675" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="676">
@@ -62563,37 +62563,37 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2025-03-02T00:00:00Z</t>
+          <t>2025-02-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C676" t="n">
         <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F676" t="n">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
         <v>2</v>
       </c>
-      <c r="I676" t="n">
-        <v>0</v>
-      </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K676" t="n">
@@ -62604,12 +62604,12 @@
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>paderborn</t>
+          <t>braunschweig</t>
         </is>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O676" t="n">
@@ -62631,22 +62631,22 @@
         <v>19.03</v>
       </c>
       <c r="U676" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V676" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W676" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X676" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y676" t="n">
         <v>5000000</v>
       </c>
       <c r="Z676" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="677">
@@ -62655,37 +62655,37 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C677" t="n">
         <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K677" t="n">
@@ -62696,49 +62696,49 @@
       </c>
       <c r="M677" t="inlineStr">
         <is>
-          <t>ulm</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hannover</t>
         </is>
       </c>
       <c r="O677" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P677" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q677" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R677" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S677" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T677" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U677" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P677" t="n">
+      <c r="V677" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q677" t="n">
+      <c r="W677" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R677" t="n">
+      <c r="X677" t="n">
         <v>26.1</v>
       </c>
-      <c r="S677" t="n">
+      <c r="Y677" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T677" t="n">
+      <c r="Z677" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U677" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V677" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W677" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X677" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y677" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z677" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="678">
@@ -62747,37 +62747,37 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2025-03-08T00:00:00Z</t>
+          <t>2025-02-07T00:00:00Z</t>
         </is>
       </c>
       <c r="C678" t="n">
         <v>0</v>
       </c>
       <c r="D678" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F678" t="n">
-        <v>1769</v>
-      </c>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>Fortuna Dusseldorf</t>
-        </is>
-      </c>
       <c r="H678" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K678" t="n">
@@ -62788,49 +62788,49 @@
       </c>
       <c r="M678" t="inlineStr">
         <is>
+          <t>preuen munster</t>
+        </is>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
           <t>hamburger sv</t>
         </is>
       </c>
-      <c r="N678" t="inlineStr">
-        <is>
-          <t>fortuna dusseldorf</t>
-        </is>
-      </c>
       <c r="O678" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P678" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R678" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S678" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T678" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U678" t="n">
         <v>70000000</v>
       </c>
-      <c r="P678" t="n">
+      <c r="V678" t="n">
         <v>65000000</v>
       </c>
-      <c r="Q678" t="n">
+      <c r="W678" t="n">
         <v>7.7</v>
       </c>
-      <c r="R678" t="n">
+      <c r="X678" t="n">
         <v>26.8</v>
       </c>
-      <c r="S678" t="n">
+      <c r="Y678" t="n">
         <v>5000000</v>
       </c>
-      <c r="T678" t="n">
+      <c r="Z678" t="n">
         <v>18.06</v>
-      </c>
-      <c r="U678" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V678" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W678" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X678" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y678" t="n">
-        <v>12777777.77777778</v>
-      </c>
-      <c r="Z678" t="n">
-        <v>19.03</v>
       </c>
     </row>
     <row r="679">
@@ -62839,37 +62839,37 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2025-03-14T00:00:00Z</t>
+          <t>2025-02-09T00:00:00Z</t>
         </is>
       </c>
       <c r="C679" t="n">
         <v>0</v>
       </c>
       <c r="D679" t="n">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F679" t="n">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K679" t="n">
@@ -62880,49 +62880,49 @@
       </c>
       <c r="M679" t="inlineStr">
         <is>
-          <t>magdeburg</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>schalke 04</t>
         </is>
       </c>
       <c r="O679" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q679" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R679" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S679" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T679" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U679" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P679" t="n">
+      <c r="V679" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q679" t="n">
+      <c r="W679" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R679" t="n">
+      <c r="X679" t="n">
         <v>26.1</v>
       </c>
-      <c r="S679" t="n">
+      <c r="Y679" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T679" t="n">
+      <c r="Z679" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U679" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V679" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W679" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X679" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y679" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z679" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="680">
@@ -62931,33 +62931,33 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2025-03-15T00:00:00Z</t>
+          <t>2025-02-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C680" t="n">
         <v>0</v>
       </c>
       <c r="D680" t="n">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F680" t="n">
-        <v>1771</v>
-      </c>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J680" t="inlineStr">
         <is>
@@ -62972,49 +62972,49 @@
       </c>
       <c r="M680" t="inlineStr">
         <is>
+          <t>magdeburg</t>
+        </is>
+      </c>
+      <c r="N680" t="inlineStr">
+        <is>
           <t>1. fc koln</t>
         </is>
       </c>
-      <c r="N680" t="inlineStr">
-        <is>
-          <t>darmstadt</t>
-        </is>
-      </c>
       <c r="O680" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P680" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R680" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S680" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T680" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U680" t="n">
         <v>100000000</v>
       </c>
-      <c r="P680" t="n">
+      <c r="V680" t="n">
         <v>95000000</v>
       </c>
-      <c r="Q680" t="n">
+      <c r="W680" t="n">
         <v>5.3</v>
       </c>
-      <c r="R680" t="n">
+      <c r="X680" t="n">
         <v>26.7</v>
       </c>
-      <c r="S680" t="n">
+      <c r="Y680" t="n">
         <v>5000000</v>
       </c>
-      <c r="T680" t="n">
+      <c r="Z680" t="n">
         <v>18.42</v>
-      </c>
-      <c r="U680" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V680" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W680" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X680" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y680" t="n">
-        <v>12777777.77777778</v>
-      </c>
-      <c r="Z680" t="n">
-        <v>19.03</v>
       </c>
     </row>
     <row r="681">
@@ -63023,33 +63023,33 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2025-03-28T00:00:00Z</t>
+          <t>2025-02-16T00:00:00Z</t>
         </is>
       </c>
       <c r="C681" t="n">
         <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="F681" t="n">
-        <v>1772</v>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J681" t="inlineStr">
         <is>
@@ -63064,49 +63064,49 @@
       </c>
       <c r="M681" t="inlineStr">
         <is>
+          <t>regensburg</t>
+        </is>
+      </c>
+      <c r="N681" t="inlineStr">
+        <is>
           <t>hamburger sv</t>
         </is>
       </c>
-      <c r="N681" t="inlineStr">
-        <is>
-          <t>elversberg</t>
-        </is>
-      </c>
       <c r="O681" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P681" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R681" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S681" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T681" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U681" t="n">
         <v>70000000</v>
       </c>
-      <c r="P681" t="n">
+      <c r="V681" t="n">
         <v>65000000</v>
       </c>
-      <c r="Q681" t="n">
+      <c r="W681" t="n">
         <v>7.7</v>
       </c>
-      <c r="R681" t="n">
+      <c r="X681" t="n">
         <v>26.8</v>
       </c>
-      <c r="S681" t="n">
+      <c r="Y681" t="n">
         <v>5000000</v>
       </c>
-      <c r="T681" t="n">
+      <c r="Z681" t="n">
         <v>18.06</v>
-      </c>
-      <c r="U681" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V681" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W681" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X681" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y681" t="n">
-        <v>12777777.77777778</v>
-      </c>
-      <c r="Z681" t="n">
-        <v>19.03</v>
       </c>
     </row>
     <row r="682">
@@ -63115,37 +63115,37 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-03-29T00:00:00Z</t>
+          <t>2025-02-21T00:00:00Z</t>
         </is>
       </c>
       <c r="C682" t="n">
         <v>0</v>
       </c>
       <c r="D682" t="n">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F682" t="n">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K682" t="n">
@@ -63156,49 +63156,49 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>paderborn</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>kaiserslautern</t>
         </is>
       </c>
       <c r="O682" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R682" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S682" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T682" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U682" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P682" t="n">
+      <c r="V682" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q682" t="n">
+      <c r="W682" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R682" t="n">
+      <c r="X682" t="n">
         <v>26.1</v>
       </c>
-      <c r="S682" t="n">
+      <c r="Y682" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T682" t="n">
+      <c r="Z682" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U682" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V682" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W682" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X682" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y682" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z682" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="683">
@@ -63207,37 +63207,37 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-02-23T00:00:00Z</t>
         </is>
       </c>
       <c r="C683" t="n">
         <v>0</v>
       </c>
       <c r="D683" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F683" t="n">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K683" t="n">
@@ -63248,49 +63248,49 @@
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>nurnberg</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>fortuna dusseldorf</t>
         </is>
       </c>
       <c r="O683" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P683" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R683" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S683" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T683" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U683" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P683" t="n">
+      <c r="V683" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q683" t="n">
+      <c r="W683" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R683" t="n">
+      <c r="X683" t="n">
         <v>26.1</v>
       </c>
-      <c r="S683" t="n">
+      <c r="Y683" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T683" t="n">
+      <c r="Z683" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U683" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V683" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W683" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X683" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y683" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z683" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="684">
@@ -63299,37 +63299,37 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-04-05T00:00:00Z</t>
+          <t>2025-03-01T00:00:00Z</t>
         </is>
       </c>
       <c r="C684" t="n">
         <v>0</v>
       </c>
       <c r="D684" t="n">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
           <t>1. FC Köln</t>
         </is>
       </c>
-      <c r="F684" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>Hertha</t>
-        </is>
-      </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K684" t="n">
@@ -63340,49 +63340,49 @@
       </c>
       <c r="M684" t="inlineStr">
         <is>
+          <t>karlsruhe</t>
+        </is>
+      </c>
+      <c r="N684" t="inlineStr">
+        <is>
           <t>1. fc koln</t>
         </is>
       </c>
-      <c r="N684" t="inlineStr">
-        <is>
-          <t>hertha</t>
-        </is>
-      </c>
       <c r="O684" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P684" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R684" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S684" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T684" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U684" t="n">
         <v>100000000</v>
       </c>
-      <c r="P684" t="n">
+      <c r="V684" t="n">
         <v>95000000</v>
       </c>
-      <c r="Q684" t="n">
+      <c r="W684" t="n">
         <v>5.3</v>
       </c>
-      <c r="R684" t="n">
+      <c r="X684" t="n">
         <v>26.7</v>
       </c>
-      <c r="S684" t="n">
+      <c r="Y684" t="n">
         <v>5000000</v>
       </c>
-      <c r="T684" t="n">
+      <c r="Z684" t="n">
         <v>18.42</v>
-      </c>
-      <c r="U684" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V684" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W684" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X684" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y684" t="n">
-        <v>12777777.77777778</v>
-      </c>
-      <c r="Z684" t="n">
-        <v>19.03</v>
       </c>
     </row>
     <row r="685">
@@ -63391,37 +63391,37 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-02T00:00:00Z</t>
         </is>
       </c>
       <c r="C685" t="n">
         <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F685" t="n">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K685" t="n">
@@ -63432,12 +63432,12 @@
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>greuther furth</t>
+          <t>paderborn</t>
         </is>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O685" t="n">
@@ -63459,22 +63459,22 @@
         <v>19.03</v>
       </c>
       <c r="U685" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="V685" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="W685" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="X685" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Y685" t="n">
         <v>5000000</v>
       </c>
       <c r="Z685" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="686">
@@ -63483,33 +63483,33 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-04-11T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C686" t="n">
         <v>0</v>
       </c>
       <c r="D686" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="F686" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
@@ -63524,49 +63524,49 @@
       </c>
       <c r="M686" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>ulm</t>
         </is>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>braunschweig</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O686" t="n">
-        <v>70000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P686" t="n">
-        <v>65000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q686" t="n">
-        <v>7.7</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R686" t="n">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
       <c r="S686" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T686" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U686" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V686" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W686" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X686" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y686" t="n">
         <v>5000000</v>
       </c>
-      <c r="T686" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U686" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V686" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W686" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X686" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y686" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z686" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="687">
@@ -63575,37 +63575,37 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-04-19T00:00:00Z</t>
+          <t>2025-03-08T00:00:00Z</t>
         </is>
       </c>
       <c r="C687" t="n">
         <v>0</v>
       </c>
       <c r="D687" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F687" t="n">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K687" t="n">
@@ -63616,49 +63616,49 @@
       </c>
       <c r="M687" t="inlineStr">
         <is>
-          <t>schalke 04</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>fortuna dusseldorf</t>
         </is>
       </c>
       <c r="O687" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P687" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R687" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S687" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T687" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U687" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P687" t="n">
+      <c r="V687" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q687" t="n">
+      <c r="W687" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R687" t="n">
+      <c r="X687" t="n">
         <v>26.1</v>
       </c>
-      <c r="S687" t="n">
+      <c r="Y687" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T687" t="n">
+      <c r="Z687" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U687" t="n">
-        <v>70000000</v>
-      </c>
-      <c r="V687" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="W687" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X687" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="Y687" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z687" t="n">
-        <v>18.06</v>
       </c>
     </row>
     <row r="688">
@@ -63667,37 +63667,37 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-04-20T00:00:00Z</t>
+          <t>2025-03-14T00:00:00Z</t>
         </is>
       </c>
       <c r="C688" t="n">
         <v>0</v>
       </c>
       <c r="D688" t="n">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F688" t="n">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>Preußen Münster</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="n">
         <v>3</v>
       </c>
-      <c r="I688" t="n">
-        <v>1</v>
-      </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K688" t="n">
@@ -63708,49 +63708,49 @@
       </c>
       <c r="M688" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>magdeburg</t>
         </is>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>preuen munster</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O688" t="n">
-        <v>100000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P688" t="n">
-        <v>95000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q688" t="n">
-        <v>5.3</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R688" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="S688" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T688" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U688" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V688" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W688" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X688" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y688" t="n">
         <v>5000000</v>
       </c>
-      <c r="T688" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="U688" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V688" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W688" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X688" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y688" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z688" t="n">
-        <v>19.03</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="689">
@@ -63759,37 +63759,37 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-15T00:00:00Z</t>
         </is>
       </c>
       <c r="C689" t="n">
         <v>0</v>
       </c>
       <c r="D689" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F689" t="n">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K689" t="n">
@@ -63800,31 +63800,31 @@
       </c>
       <c r="M689" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>karlsruhe</t>
+          <t>darmstadt</t>
         </is>
       </c>
       <c r="O689" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="P689" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="Q689" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="R689" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="S689" t="n">
         <v>5000000</v>
       </c>
       <c r="T689" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
       <c r="U689" t="n">
         <v>261388888.8888889</v>
@@ -63851,37 +63851,37 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-04-27T00:00:00Z</t>
+          <t>2025-03-28T00:00:00Z</t>
         </is>
       </c>
       <c r="C690" t="n">
         <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F690" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K690" t="n">
@@ -63892,49 +63892,49 @@
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>hannover</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>elversberg</t>
         </is>
       </c>
       <c r="O690" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P690" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q690" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R690" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S690" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T690" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U690" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P690" t="n">
+      <c r="V690" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q690" t="n">
+      <c r="W690" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R690" t="n">
+      <c r="X690" t="n">
         <v>26.1</v>
       </c>
-      <c r="S690" t="n">
+      <c r="Y690" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T690" t="n">
+      <c r="Z690" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U690" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V690" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W690" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X690" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y690" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z690" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="691">
@@ -63943,33 +63943,33 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-03-29T00:00:00Z</t>
         </is>
       </c>
       <c r="C691" t="n">
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F691" t="n">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
@@ -63984,12 +63984,12 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>darmstadt</t>
+          <t>paderborn</t>
         </is>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O691" t="n">
@@ -64011,22 +64011,22 @@
         <v>19.03</v>
       </c>
       <c r="U691" t="n">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="V691" t="n">
-        <v>65000000</v>
+        <v>95000000</v>
       </c>
       <c r="W691" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="X691" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Y691" t="n">
         <v>5000000</v>
       </c>
       <c r="Z691" t="n">
-        <v>18.06</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="692">
@@ -64035,37 +64035,37 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-05-03T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C692" t="n">
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F692" t="n">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K692" t="n">
@@ -64076,49 +64076,49 @@
       </c>
       <c r="M692" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>nurnberg</t>
         </is>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>regensburg</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="O692" t="n">
-        <v>100000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P692" t="n">
-        <v>95000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q692" t="n">
-        <v>5.3</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R692" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="S692" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T692" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U692" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V692" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W692" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X692" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y692" t="n">
         <v>5000000</v>
       </c>
-      <c r="T692" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="U692" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V692" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W692" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X692" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y692" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z692" t="n">
-        <v>19.03</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="693">
@@ -64127,33 +64127,33 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-05-09T00:00:00Z</t>
+          <t>2025-04-05T00:00:00Z</t>
         </is>
       </c>
       <c r="C693" t="n">
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="F693" t="n">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J693" t="inlineStr">
         <is>
@@ -64168,49 +64168,49 @@
       </c>
       <c r="M693" t="inlineStr">
         <is>
-          <t>nurnberg</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hertha</t>
         </is>
       </c>
       <c r="O693" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P693" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R693" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S693" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T693" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U693" t="n">
         <v>261388888.8888889</v>
       </c>
-      <c r="P693" t="n">
+      <c r="V693" t="n">
         <v>248611111.1111111</v>
       </c>
-      <c r="Q693" t="n">
+      <c r="W693" t="n">
         <v>6.305555555555555</v>
       </c>
-      <c r="R693" t="n">
+      <c r="X693" t="n">
         <v>26.1</v>
       </c>
-      <c r="S693" t="n">
+      <c r="Y693" t="n">
         <v>12777777.77777778</v>
       </c>
-      <c r="T693" t="n">
+      <c r="Z693" t="n">
         <v>19.03</v>
-      </c>
-      <c r="U693" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="V693" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="W693" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X693" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="Y693" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Z693" t="n">
-        <v>18.42</v>
       </c>
     </row>
     <row r="694">
@@ -64219,37 +64219,37 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-05-10T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C694" t="n">
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F694" t="n">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="H694" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>1</v>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K694" t="n">
@@ -64260,49 +64260,49 @@
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>greuther furth</t>
         </is>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>ulm</t>
+          <t>1. fc koln</t>
         </is>
       </c>
       <c r="O694" t="n">
-        <v>70000000</v>
+        <v>261388888.8888889</v>
       </c>
       <c r="P694" t="n">
-        <v>65000000</v>
+        <v>248611111.1111111</v>
       </c>
       <c r="Q694" t="n">
-        <v>7.7</v>
+        <v>6.305555555555555</v>
       </c>
       <c r="R694" t="n">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
       <c r="S694" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T694" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U694" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V694" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W694" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X694" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y694" t="n">
         <v>5000000</v>
       </c>
-      <c r="T694" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="U694" t="n">
-        <v>261388888.8888889</v>
-      </c>
-      <c r="V694" t="n">
-        <v>248611111.1111111</v>
-      </c>
-      <c r="W694" t="n">
-        <v>6.305555555555555</v>
-      </c>
-      <c r="X694" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="Y694" t="n">
-        <v>12777777.77777778</v>
-      </c>
       <c r="Z694" t="n">
-        <v>19.03</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="695">
@@ -64311,37 +64311,37 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-11T00:00:00Z</t>
         </is>
       </c>
       <c r="C695" t="n">
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F695" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="H695" t="n">
+        <v>2</v>
+      </c>
+      <c r="I695" t="n">
         <v>4</v>
       </c>
-      <c r="I695" t="n">
-        <v>0</v>
-      </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K695" t="n">
@@ -64352,31 +64352,31 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>1. fc koln</t>
+          <t>hamburger sv</t>
         </is>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>kaiserslautern</t>
+          <t>braunschweig</t>
         </is>
       </c>
       <c r="O695" t="n">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="P695" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="Q695" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="R695" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="S695" t="n">
         <v>5000000</v>
       </c>
       <c r="T695" t="n">
-        <v>18.42</v>
+        <v>18.06</v>
       </c>
       <c r="U695" t="n">
         <v>261388888.8888889</v>
@@ -64403,22 +64403,22 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-05-18T00:00:00Z</t>
+          <t>2025-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="C696" t="n">
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F696" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
@@ -64426,14 +64426,14 @@
         </is>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I696" t="n">
         <v>2</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K696" t="n">
@@ -64444,7 +64444,7 @@
       </c>
       <c r="M696" t="inlineStr">
         <is>
-          <t>greuther furth</t>
+          <t>schalke 04</t>
         </is>
       </c>
       <c r="N696" t="inlineStr">
@@ -64486,6 +64486,834 @@
         <v>5000000</v>
       </c>
       <c r="Z696" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>540490</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-04-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>0</v>
+      </c>
+      <c r="D697" t="n">
+        <v>779</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Preußen Münster</t>
+        </is>
+      </c>
+      <c r="H697" t="n">
+        <v>3</v>
+      </c>
+      <c r="I697" t="n">
+        <v>1</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>1. fc koln</t>
+        </is>
+      </c>
+      <c r="N697" t="inlineStr">
+        <is>
+          <t>preuen munster</t>
+        </is>
+      </c>
+      <c r="O697" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P697" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R697" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S697" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T697" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U697" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="V697" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="W697" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="X697" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Y697" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="Z697" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>540491</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>0</v>
+      </c>
+      <c r="D698" t="n">
+        <v>780</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="H698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>2</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>hamburger sv</t>
+        </is>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>karlsruhe</t>
+        </is>
+      </c>
+      <c r="O698" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P698" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R698" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S698" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T698" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U698" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="V698" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="W698" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="X698" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Y698" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="Z698" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>540492</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-04-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+      <c r="D699" t="n">
+        <v>781</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H699" t="n">
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>hannover</t>
+        </is>
+      </c>
+      <c r="N699" t="inlineStr">
+        <is>
+          <t>1. fc koln</t>
+        </is>
+      </c>
+      <c r="O699" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P699" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q699" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R699" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S699" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T699" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U699" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V699" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W699" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X699" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y699" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Z699" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>540493</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+      <c r="D700" t="n">
+        <v>782</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="n">
+        <v>4</v>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>darmstadt</t>
+        </is>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>hamburger sv</t>
+        </is>
+      </c>
+      <c r="O700" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P700" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q700" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R700" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S700" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T700" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U700" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V700" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W700" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X700" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y700" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Z700" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>540494</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-05-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+      <c r="D701" t="n">
+        <v>783</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Regensburg</t>
+        </is>
+      </c>
+      <c r="H701" t="n">
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>1</v>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>1. fc koln</t>
+        </is>
+      </c>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>regensburg</t>
+        </is>
+      </c>
+      <c r="O701" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P701" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R701" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S701" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T701" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U701" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="V701" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="W701" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="X701" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Y701" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="Z701" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>540495</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-05-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+      <c r="D702" t="n">
+        <v>784</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H702" t="n">
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2</v>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>nurnberg</t>
+        </is>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>1. fc koln</t>
+        </is>
+      </c>
+      <c r="O702" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P702" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q702" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R702" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S702" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T702" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U702" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="V702" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="W702" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X702" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Y702" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Z702" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>540496</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2025-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+      <c r="D703" t="n">
+        <v>785</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="H703" t="n">
+        <v>6</v>
+      </c>
+      <c r="I703" t="n">
+        <v>1</v>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>hamburger sv</t>
+        </is>
+      </c>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>ulm</t>
+        </is>
+      </c>
+      <c r="O703" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="P703" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="Q703" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R703" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="S703" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T703" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="U703" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="V703" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="W703" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="X703" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Y703" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="Z703" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>540497</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+      <c r="D704" t="n">
+        <v>786</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>1786</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H704" t="n">
+        <v>4</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>1. fc koln</t>
+        </is>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>kaiserslautern</t>
+        </is>
+      </c>
+      <c r="O704" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="P704" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="Q704" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R704" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S704" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="T704" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="U704" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="V704" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="W704" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="X704" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Y704" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="Z704" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>540498</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2025-05-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+      <c r="D705" t="n">
+        <v>787</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Greuther Furth</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>1787</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H705" t="n">
+        <v>3</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>greuther furth</t>
+        </is>
+      </c>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>hamburger sv</t>
+        </is>
+      </c>
+      <c r="O705" t="n">
+        <v>261388888.8888889</v>
+      </c>
+      <c r="P705" t="n">
+        <v>248611111.1111111</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>6.305555555555555</v>
+      </c>
+      <c r="R705" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S705" t="n">
+        <v>12777777.77777778</v>
+      </c>
+      <c r="T705" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="U705" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="V705" t="n">
+        <v>65000000</v>
+      </c>
+      <c r="W705" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X705" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y705" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Z705" t="n">
         <v>18.06</v>
       </c>
     </row>
